--- a/students_statistics.xlsx
+++ b/students_statistics.xlsx
@@ -31,7 +31,7 @@
     <t>admin</t>
   </si>
   <si>
-    <t>2025-12-30 11:21:30</t>
+    <t>2025-12-30 13:12:19</t>
   </si>
 </sst>
 </file>
@@ -414,10 +414,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
